--- a/biology/Botanique/Tilleul_de_Sambeek/Tilleul_de_Sambeek.xlsx
+++ b/biology/Botanique/Tilleul_de_Sambeek/Tilleul_de_Sambeek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tilleul de Sambeek est considéré comme le plus gros arbre des Pays-Bas avec une circonférence de 7,97 m en 2004. Son âge est estimé à 350-500 ans. Ce tilleul est situé à Sambeek, un village de la commune de Boxmeer.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois, il était connu des environs car il avait été taillé en trois étages selon une coutume courante. Cette structure en étages a disparu lors d'un violent orage le 19 juillet 1884 (comme le relate l'hebdomadaire Boxmeers Weekblad). En 1901 une tempête a emporté presque toute la ramure.
 Aujourd'hui, il est en bonne santé grâce aux nombreux travaux de restauration et revitalisation.
